--- a/resources/table/object.xlsx
+++ b/resources/table/object.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cshyeon\fb\resources\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BEB29A-0BEA-4009-A888-698CC39C5EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9541EA46-658F-4B9A-B378-7661D4D297A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{21E5F79A-8B4E-4954-B92A-70C4053AB7E6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{21E5F79A-8B4E-4954-B92A-70C4053AB7E6}"/>
   </bookViews>
   <sheets>
     <sheet name="object" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>uint</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,14 @@
   </si>
   <si>
     <t>look</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,10 +542,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1465B806-7697-4617-8245-9A2A79408B97}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -634,6 +642,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
